--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3571242.654614017</v>
+        <v>3675268.706474524</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498527</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7661701.643896095</v>
+        <v>7625541.93161454</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197.5523887421107</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>139.658122093843</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>179.053000379424</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>195.1306311058208</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>256.7273523546854</v>
       </c>
       <c r="H5" t="n">
-        <v>15.3587858464716</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>71.98153210089519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>235.1870227546764</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.943518040491607</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>168.6258104577408</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>113.5103646250809</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>177.5202205379162</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9028628750538</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722617</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>142.3046100066265</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.665762779849642</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>43.87236189622237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>130.1208074460232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>25.73194049497363</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9962538432431</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>133.605923711194</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808113</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>1.294096136280004</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3323,13 +3325,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3560,13 +3562,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808113</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>251.7801198313574</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541831</v>
+        <v>113.3174219124917</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652588</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5188249813913</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>958.147330569356</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>547.1614257797485</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734406</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758594</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.5851666348717</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1746.43293154362</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1746.43293154362</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1746.43293154362</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1746.43293154362</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1457.015761506659</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X4" t="n">
-        <v>1229.026210608642</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="Y4" t="n">
-        <v>1008.233631465111</v>
+        <v>648.3899067494191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.057359339774</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1290.094842399363</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>931.8291437926121</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E5" t="n">
-        <v>546.0408911943678</v>
+        <v>736.8185791558167</v>
       </c>
       <c r="F5" t="n">
-        <v>135.0549864047602</v>
+        <v>325.8326743662091</v>
       </c>
       <c r="G5" t="n">
-        <v>124.0229402901607</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379708</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.657199403896</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3315.561863992512</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3109.584116376734</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3109.584116376734</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3109.584116376734</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>3109.584116376734</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.1690503969116</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271513</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5069,10 +5071,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5084,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5118,7 +5120,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,10 +5600,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711974</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>852.3571656803509</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>702.2405262680152</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>554.3274326856221</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.4374851877117</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>240.2413859025916</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>98.52955474478969</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.968678544967</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.1760994014371</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5887,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>366.9636532421608</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5966,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,13 +6311,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213311</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.08695624706</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796381</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175644</v>
+        <v>599.4606235519261</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.75711663939</v>
+        <v>452.5706760540157</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315926</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.90908011978</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176793</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719451</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912511</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660665</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063897</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229213</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.92099021381</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519664</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.333946200129</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263768</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081894</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6682,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6947,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.44064873475</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213312</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612653</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229214</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519665</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942646</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580104</v>
+        <v>375.4748046689422</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345466</v>
+        <v>208.2787053838221</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,19 +7669,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>547.5889719879178</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>400.6990244900074</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37.52737017531078</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>76.60007353871589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>40.64330621514806</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>24.58839950885167</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.91821458107486</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>8.455458555545192e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.455458555545192e-13</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>34.74287850523359</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.151079231931362e-12</v>
+        <v>26.97729093373215</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>2.00531331087754</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>667812.4072616486</v>
+        <v>667812.4072616484</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667812.4072616484</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656696.2711222265</v>
+        <v>656696.2711222266</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710699</v>
-      </c>
       <c r="M2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.414420967917457e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363172</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989935</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989933</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989929</v>
+        <v>11776.97621680575</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989929</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989926</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747653.015906074</v>
+        <v>-747653.0159060739</v>
       </c>
       <c r="C6" t="n">
-        <v>581091.7298215184</v>
+        <v>581091.7298215188</v>
       </c>
       <c r="D6" t="n">
-        <v>581091.7298215184</v>
+        <v>581091.7298215186</v>
       </c>
       <c r="E6" t="n">
-        <v>328477.3018574375</v>
+        <v>328477.3018574378</v>
       </c>
       <c r="F6" t="n">
-        <v>653889.7636647931</v>
+        <v>653889.7636647925</v>
       </c>
       <c r="G6" t="n">
         <v>653889.763664793</v>
       </c>
       <c r="H6" t="n">
+        <v>653889.7636647931</v>
+      </c>
+      <c r="I6" t="n">
         <v>653889.763664793</v>
       </c>
-      <c r="I6" t="n">
-        <v>653889.7636647931</v>
-      </c>
       <c r="J6" t="n">
-        <v>436358.5612675153</v>
+        <v>436358.5612675155</v>
       </c>
       <c r="K6" t="n">
-        <v>637630.0120436233</v>
+        <v>653889.7636647926</v>
       </c>
       <c r="L6" t="n">
-        <v>657057.7300372552</v>
+        <v>653889.7636647929</v>
       </c>
       <c r="M6" t="n">
-        <v>572002.7021017427</v>
+        <v>568834.7357292811</v>
       </c>
       <c r="N6" t="n">
-        <v>657057.7300372547</v>
+        <v>653889.763664793</v>
       </c>
       <c r="O6" t="n">
-        <v>657057.7300372545</v>
+        <v>653889.7636647929</v>
       </c>
       <c r="P6" t="n">
-        <v>653889.763664793</v>
+        <v>653889.7636647929</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252518e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.714463988252518e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.1814529213699</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>271.2636035596105</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7160249520179</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>30.57902428321637</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>154.194373298768</v>
       </c>
       <c r="H5" t="n">
-        <v>279.2489785408488</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.3708883089429</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>51.33597558191462</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>99.24424374768424</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>217.6121281983128</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>53.73645647354697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>109.0027777986748</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28564,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.714463988252517e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,13 +32320,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,16 +33031,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>716.71805534327</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33196,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159439</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34147,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34211,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,16 +37387,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37859,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675268.706474524</v>
+        <v>3671256.096460532</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625541.93161454</v>
+        <v>7625541.931614539</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>139.658122093843</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>299.0513903014187</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>195.1306311058208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>256.7273523546854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.0870494265628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>71.98153210089519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458447</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.6258104577408</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>177.5202205379162</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.26558381699921</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.3046100066265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>4.665762779849642</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184554</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.605923711194</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.294096136280004</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7072979240948</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,13 +3562,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>251.7801198313574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>113.3174219124917</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5188249813913</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116518</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176106</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>958.147330569356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>958.147330569356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>547.1614257797485</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.3899067494191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368017</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310562</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>648.3899067494191</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>648.3899067494191</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.606831754061</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>736.8185791558167</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>325.8326743662091</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.0765981364621</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>584.1404152085552</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>434.0237757962194</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>286.1106822138263</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110232</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.7250629667018</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878908</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>922.6774975139006</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>922.6774975139006</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,7 +5269,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5311,10 +5311,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>852.3571656803509</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>702.2405262680152</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>554.3274326856221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>407.4374851877117</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>240.2413859025916</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>98.52955474478969</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.941813438498</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6378,58 +6378,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704551</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>599.4606235519261</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>452.5706760540157</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>550.9217088032285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6934,10 +6934,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6967,22 +6967,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367892</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E37" t="n">
-        <v>484.2179484367892</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.0218491516692</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.3306680894883</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>820.3944851615814</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>670.2778457492457</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>522.3647521668526</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>375.4748046689422</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>208.2787053838221</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>547.5889719879178</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>400.6990244900074</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52737017531078</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>76.60007353871589</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>31.91821458107486</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.1398665102892</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>83.2711496294425</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.74287850523359</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.97729093373215</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.00531331087754</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26322,40 +26322,40 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055063</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>2.414420967917457e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.493968250307481e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815705</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
-      <c r="C4" t="n">
-        <v>90964.0109881571</v>
-      </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,10 +26450,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747653.0159060739</v>
+        <v>-747653.0159060741</v>
       </c>
       <c r="C6" t="n">
+        <v>581091.7298215185</v>
+      </c>
+      <c r="D6" t="n">
         <v>581091.7298215188</v>
       </c>
-      <c r="D6" t="n">
-        <v>581091.7298215186</v>
-      </c>
       <c r="E6" t="n">
-        <v>328477.3018574378</v>
+        <v>328129.9226030808</v>
       </c>
       <c r="F6" t="n">
-        <v>653889.7636647925</v>
+        <v>653542.3844104361</v>
       </c>
       <c r="G6" t="n">
-        <v>653889.763664793</v>
+        <v>653542.384410436</v>
       </c>
       <c r="H6" t="n">
-        <v>653889.7636647931</v>
+        <v>653542.3844104361</v>
       </c>
       <c r="I6" t="n">
-        <v>653889.763664793</v>
+        <v>653542.384410436</v>
       </c>
       <c r="J6" t="n">
-        <v>436358.5612675155</v>
+        <v>436011.1820131587</v>
       </c>
       <c r="K6" t="n">
-        <v>653889.7636647926</v>
+        <v>653542.3844104363</v>
       </c>
       <c r="L6" t="n">
-        <v>653889.7636647929</v>
+        <v>653542.3844104359</v>
       </c>
       <c r="M6" t="n">
-        <v>568834.7357292811</v>
+        <v>568487.3564749244</v>
       </c>
       <c r="N6" t="n">
-        <v>653889.763664793</v>
+        <v>653542.384410436</v>
       </c>
       <c r="O6" t="n">
-        <v>653889.7636647929</v>
+        <v>653542.3844104358</v>
       </c>
       <c r="P6" t="n">
-        <v>653889.7636647929</v>
+        <v>653542.3844104357</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>50.18957841599433</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>30.57902428321637</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>154.194373298768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.3708883089429</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="Y8" t="n">
-        <v>217.6121281983128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>109.0027777986748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586646</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664623</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3671256.096460532</v>
+        <v>3673016.626763317</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>130.4667823470862</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.0513903014187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>159.5790634306101</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>136.0870494265628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>218.1043346164863</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>116.9388157418477</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>183.1642512458447</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>158.0933671656948</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.53134576113629</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266494</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>117.4665281367395</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428122</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.96838802184554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,49 +4412,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>1869.55722707889</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>1869.55722707889</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>1869.55722707889</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>1869.55722707889</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>1869.55722707889</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1751.913851851648</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>2789.404991987638</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>2499.987821950677</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>2271.99827105266</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>2051.20569190913</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1706.987139384971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4950,28 +4950,28 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,22 +4983,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
         <v>1478.501411349798</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362671</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,46 +5047,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5345,31 +5345,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459573</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180504</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>449.4852666057146</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>301.5721730233215</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>154.6822255254112</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>950.186553776197</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192581</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5582,31 +5582,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.9279362553159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6615,10 +6615,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6837,22 +6837,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-5.401264628080076e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405083</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>105.2672314396039</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.6711151870886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194267</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>83.2711496294425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26079,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656696.2711222266</v>
+        <v>656696.2711222265</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055063</v>
-      </c>
       <c r="L2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055056</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>1.296640615243273e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680591</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680597</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680593</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,10 +26450,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26527,43 +26527,43 @@
         <v>581091.7298215185</v>
       </c>
       <c r="D6" t="n">
-        <v>581091.7298215188</v>
+        <v>581091.7298215185</v>
       </c>
       <c r="E6" t="n">
-        <v>328129.9226030808</v>
+        <v>328442.5639320023</v>
       </c>
       <c r="F6" t="n">
-        <v>653542.3844104361</v>
+        <v>653855.0257393572</v>
       </c>
       <c r="G6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393576</v>
       </c>
       <c r="H6" t="n">
-        <v>653542.3844104361</v>
+        <v>653855.0257393576</v>
       </c>
       <c r="I6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.0257393569</v>
       </c>
       <c r="J6" t="n">
-        <v>436011.1820131587</v>
+        <v>436323.8233420799</v>
       </c>
       <c r="K6" t="n">
-        <v>653542.3844104363</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="L6" t="n">
-        <v>653542.3844104359</v>
+        <v>653855.025739357</v>
       </c>
       <c r="M6" t="n">
-        <v>568487.3564749244</v>
+        <v>568799.9978038454</v>
       </c>
       <c r="N6" t="n">
-        <v>653542.384410436</v>
+        <v>653855.025739357</v>
       </c>
       <c r="O6" t="n">
-        <v>653542.3844104358</v>
+        <v>653855.0257393573</v>
       </c>
       <c r="P6" t="n">
-        <v>653542.3844104357</v>
+        <v>653855.0257393569</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26746,16 +26746,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>224.2162592735967</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>50.18957841599433</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>6.446744828418105</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>68.10750358912654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>86.97915439777245</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>186.5668494326243</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>94.0442761581327</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>128.4296311708962</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.426064885092103e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.797291308582718e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460057</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175677</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243189</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37074,7 +37074,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
         <v>735.300110790295</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
